--- a/MG/employee_ids.xlsx
+++ b/MG/employee_ids.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29628"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\legal\PycharmProjects\PythonProject\MG\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3217FD3A-2444-4EB9-A3A4-865AC021A722}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59409FF6-DCEF-4A84-8EA0-9FAAA786E021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{B1AEE62E-860D-4A91-8E4E-3890EF03A5FD}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="24">
   <si>
     <t>Giang</t>
   </si>
@@ -105,6 +105,9 @@
   </si>
   <si>
     <t>Kha</t>
+  </si>
+  <si>
+    <t>LogPass</t>
   </si>
 </sst>
 </file>
@@ -535,15 +538,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6D0B514D-17C3-4257-9B65-E57560072083}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:G6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>16</v>
       </c>
@@ -562,8 +565,11 @@
       <c r="F1" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="G1" s="6" t="s">
+        <v>23</v>
+      </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A2" s="1" t="s">
         <v>15</v>
       </c>
@@ -582,8 +588,11 @@
       <c r="F2" s="1">
         <v>312</v>
       </c>
+      <c r="G2" s="5" t="s">
+        <v>15</v>
+      </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A3" s="1" t="s">
         <v>8</v>
       </c>
@@ -602,8 +611,11 @@
       <c r="F3" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="G3" s="5" t="s">
+        <v>8</v>
+      </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A4" s="1" t="s">
         <v>17</v>
       </c>
@@ -622,12 +634,15 @@
       <c r="F4" s="5" t="s">
         <v>20</v>
       </c>
+      <c r="G4" s="5" t="s">
+        <v>17</v>
+      </c>
     </row>
-    <row r="5" spans="1:6" ht="26.4" x14ac:dyDescent="0.3">
-      <c r="A5" s="6" t="s">
+    <row r="5" spans="1:7" ht="26.4" x14ac:dyDescent="0.3">
+      <c r="A5" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="6" t="s">
+      <c r="B5" s="1" t="s">
         <v>19</v>
       </c>
       <c r="C5" s="5" t="s">
@@ -642,12 +657,15 @@
       <c r="F5" s="3">
         <v>312</v>
       </c>
+      <c r="G5" s="5" t="s">
+        <v>18</v>
+      </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="6" t="s">
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="1" t="s">
         <v>22</v>
       </c>
       <c r="C6" s="5" t="s">
@@ -661,6 +679,9 @@
       </c>
       <c r="F6" s="5" t="s">
         <v>20</v>
+      </c>
+      <c r="G6" s="5" t="s">
+        <v>21</v>
       </c>
     </row>
   </sheetData>
